--- a/openfisca_france/tests/ipp/correspondances_variables.xlsx
+++ b/openfisca_france/tests/ipp/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="24345" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">nonsal!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="3010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="3011">
   <si>
     <t>Label_OF</t>
   </si>
@@ -9111,6 +9112,9 @@
   </si>
   <si>
     <t>patri</t>
+  </si>
+  <si>
+    <t>vtmo</t>
   </si>
 </sst>
 </file>
@@ -9403,7 +9407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9587,6 +9591,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9849,6 +9854,97 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -17645,8 +17741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B185" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188:D189"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D101" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19163,6 +19259,7 @@
       <c r="D95" t="s">
         <v>178</v>
       </c>
+      <c r="J95" s="79"/>
       <c r="N95" t="s">
         <v>869</v>
       </c>
@@ -19236,13 +19333,10 @@
         <v>1482</v>
       </c>
       <c r="D101" t="s">
-        <v>1444</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>1</v>
-      </c>
       <c r="C102" s="20" t="s">
         <v>1483</v>
       </c>
@@ -21588,7 +21682,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23753,7 +23847,7 @@
       <c r="J1" s="30" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="81" t="s">
         <v>2097</v>
       </c>
       <c r="M1" s="31" t="s">
@@ -23761,7 +23855,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>2099</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -23779,13 +23873,13 @@
       </c>
       <c r="I2"/>
       <c r="J2" s="33"/>
-      <c r="L2" s="80"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="34" t="s">
         <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="17" t="s">
         <v>736</v>
       </c>
@@ -23803,7 +23897,7 @@
       </c>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="L3" s="80"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="35" t="s">
         <v>2102</v>
       </c>
@@ -23823,7 +23917,7 @@
       </c>
       <c r="I4"/>
       <c r="J4" s="33"/>
-      <c r="L4" s="80"/>
+      <c r="L4" s="81"/>
       <c r="M4" s="36" t="s">
         <v>2103</v>
       </c>
@@ -24406,7 +24500,7 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="80" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -24418,7 +24512,7 @@
       </c>
       <c r="F40"/>
       <c r="G40" s="32"/>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="80" t="s">
         <v>2124</v>
       </c>
       <c r="I40" s="29" t="s">
@@ -24428,7 +24522,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="B41" s="79"/>
+      <c r="B41" s="80"/>
       <c r="C41" s="17" t="s">
         <v>137</v>
       </c>
@@ -24438,7 +24532,7 @@
       </c>
       <c r="F41"/>
       <c r="G41" s="32"/>
-      <c r="H41" s="79"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="29" t="s">
         <v>2127</v>
       </c>
@@ -24446,7 +24540,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="B42" s="79"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="17" t="s">
         <v>139</v>
       </c>
@@ -24456,7 +24550,7 @@
       </c>
       <c r="F42"/>
       <c r="G42" s="32"/>
-      <c r="H42" s="79"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="29" t="s">
         <v>2129</v>
       </c>
@@ -24486,7 +24580,7 @@
       </c>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" s="82" t="s">
+      <c r="H44" s="83" t="s">
         <v>243</v>
       </c>
       <c r="I44" s="29" t="s">
@@ -24508,7 +24602,7 @@
         <v>1</v>
       </c>
       <c r="G45"/>
-      <c r="H45" s="82"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="45" t="s">
         <v>2135</v>
       </c>
@@ -24526,7 +24620,7 @@
       </c>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="79" t="s">
+      <c r="H46" s="80" t="s">
         <v>257</v>
       </c>
       <c r="I46" s="29" t="s">
@@ -24544,7 +24638,7 @@
       </c>
       <c r="F47"/>
       <c r="G47"/>
-      <c r="H47" s="79"/>
+      <c r="H47" s="80"/>
       <c r="I47" s="29" t="s">
         <v>2140</v>
       </c>
@@ -24562,7 +24656,7 @@
         <v>1</v>
       </c>
       <c r="G48"/>
-      <c r="H48" s="79"/>
+      <c r="H48" s="80"/>
       <c r="I48" s="44" t="s">
         <v>2142</v>
       </c>
@@ -24761,7 +24855,7 @@
       <c r="B61" s="17" t="s">
         <v>930</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="80" t="s">
         <v>928</v>
       </c>
       <c r="D61" s="16"/>
@@ -24779,7 +24873,7 @@
       <c r="B62" s="17" t="s">
         <v>933</v>
       </c>
-      <c r="C62" s="79"/>
+      <c r="C62" s="80"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -24790,7 +24884,7 @@
         <v>934</v>
       </c>
       <c r="I62"/>
-      <c r="L62" s="79" t="s">
+      <c r="L62" s="80" t="s">
         <v>2154</v>
       </c>
     </row>
@@ -24798,7 +24892,7 @@
       <c r="B63" s="17" t="s">
         <v>936</v>
       </c>
-      <c r="C63" s="79"/>
+      <c r="C63" s="80"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -24809,13 +24903,13 @@
         <v>937</v>
       </c>
       <c r="I63"/>
-      <c r="L63" s="79"/>
+      <c r="L63" s="80"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="C64" s="79"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -24826,7 +24920,7 @@
         <v>940</v>
       </c>
       <c r="I64"/>
-      <c r="L64" s="79"/>
+      <c r="L64" s="80"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">

--- a/openfisca_france/tests/ipp/correspondances_variables.xlsx
+++ b/openfisca_france/tests/ipp/correspondances_variables.xlsx
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">nonsal!$A$1:$K$75</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="3011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="3010">
   <si>
     <t>Label_OF</t>
   </si>
@@ -5101,9 +5100,6 @@
   </si>
   <si>
     <t>irpp</t>
-  </si>
-  <si>
-    <t>irpp_net_foy</t>
   </si>
   <si>
     <t>irpp_net_ppe_foy</t>
@@ -9952,6 +9948,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17741,8 +17833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D101" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19130,8 +19222,14 @@
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1</v>
+      </c>
       <c r="C83" t="s">
         <v>1441</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1699</v>
       </c>
       <c r="N83" t="s">
         <v>1442</v>
@@ -19333,7 +19431,7 @@
         <v>1482</v>
       </c>
       <c r="D101" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
@@ -20141,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D188" t="s">
         <v>1676</v>
@@ -20224,13 +20322,13 @@
         <v>1679</v>
       </c>
       <c r="D195" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G195" t="s">
         <v>1680</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>1681</v>
-      </c>
-      <c r="H195" t="s">
-        <v>1682</v>
       </c>
       <c r="N195" t="s">
         <v>1667</v>
@@ -20238,26 +20336,26 @@
     </row>
     <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N196" t="s">
         <v>1683</v>
-      </c>
-      <c r="N196" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
+        <v>1685</v>
+      </c>
+      <c r="N197" t="s">
         <v>1686</v>
-      </c>
-      <c r="N197" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
+        <v>1687</v>
+      </c>
+      <c r="N198" t="s">
         <v>1688</v>
-      </c>
-      <c r="N198" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="199" spans="2:14" x14ac:dyDescent="0.25">
@@ -20265,13 +20363,13 @@
         <v>1</v>
       </c>
       <c r="C199" s="22" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D199" t="s">
         <v>1690</v>
       </c>
-      <c r="D199" t="s">
+      <c r="N199" t="s">
         <v>1691</v>
-      </c>
-      <c r="N199" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="200" spans="2:14" x14ac:dyDescent="0.25">
@@ -20279,45 +20377,45 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D200" t="s">
+        <v>1692</v>
+      </c>
+      <c r="N200" t="s">
         <v>1693</v>
-      </c>
-      <c r="N200" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
+        <v>1694</v>
+      </c>
+      <c r="N201" t="s">
         <v>1695</v>
-      </c>
-      <c r="N201" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
+        <v>1696</v>
+      </c>
+      <c r="N202" t="s">
         <v>1697</v>
-      </c>
-      <c r="N202" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N203" t="s">
         <v>1699</v>
-      </c>
-      <c r="N203" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N204" t="s">
         <v>1701</v>
-      </c>
-      <c r="N204" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="205" spans="2:14" x14ac:dyDescent="0.25">
@@ -20325,190 +20423,190 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D205" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1692</v>
+      </c>
+      <c r="N205" t="s">
         <v>1703</v>
-      </c>
-      <c r="G205" t="s">
-        <v>1691</v>
-      </c>
-      <c r="H205" t="s">
-        <v>1693</v>
-      </c>
-      <c r="N205" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
+        <v>1704</v>
+      </c>
+      <c r="N206" t="s">
         <v>1705</v>
-      </c>
-      <c r="N206" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N207" t="s">
         <v>1707</v>
-      </c>
-      <c r="N207" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
+        <v>1708</v>
+      </c>
+      <c r="N208" t="s">
         <v>1709</v>
-      </c>
-      <c r="N208" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="209" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N209" t="s">
         <v>1711</v>
-      </c>
-      <c r="N209" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="210" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
+        <v>1712</v>
+      </c>
+      <c r="N210" t="s">
         <v>1713</v>
-      </c>
-      <c r="N210" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="211" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N211" t="s">
         <v>1715</v>
-      </c>
-      <c r="N211" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="212" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
+        <v>1716</v>
+      </c>
+      <c r="N212" t="s">
         <v>1717</v>
-      </c>
-      <c r="N212" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="213" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
+        <v>1718</v>
+      </c>
+      <c r="N213" t="s">
         <v>1719</v>
-      </c>
-      <c r="N213" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="214" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>1720</v>
+      </c>
+      <c r="N214" t="s">
         <v>1721</v>
-      </c>
-      <c r="N214" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="215" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
+        <v>1722</v>
+      </c>
+      <c r="N215" t="s">
         <v>1723</v>
-      </c>
-      <c r="N215" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="216" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
+        <v>1724</v>
+      </c>
+      <c r="N216" t="s">
         <v>1725</v>
-      </c>
-      <c r="N216" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="217" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
+        <v>1726</v>
+      </c>
+      <c r="N217" t="s">
         <v>1727</v>
-      </c>
-      <c r="N217" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="218" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
+        <v>1728</v>
+      </c>
+      <c r="N218" t="s">
         <v>1729</v>
-      </c>
-      <c r="N218" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="219" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
+        <v>1730</v>
+      </c>
+      <c r="N219" t="s">
         <v>1731</v>
-      </c>
-      <c r="N219" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="220" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
+        <v>1732</v>
+      </c>
+      <c r="N220" t="s">
         <v>1733</v>
-      </c>
-      <c r="N220" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="221" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D221" t="s">
         <v>1023</v>
       </c>
       <c r="N221" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="222" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N222" t="s">
         <v>1737</v>
-      </c>
-      <c r="N222" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="223" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
+        <v>1738</v>
+      </c>
+      <c r="N223" t="s">
         <v>1739</v>
-      </c>
-      <c r="N223" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="224" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
+        <v>1740</v>
+      </c>
+      <c r="N224" t="s">
         <v>1741</v>
-      </c>
-      <c r="N224" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
+        <v>1742</v>
+      </c>
+      <c r="N225" t="s">
         <v>1743</v>
-      </c>
-      <c r="N225" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N226" t="s">
         <v>1745</v>
-      </c>
-      <c r="N226" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="227" spans="2:14" x14ac:dyDescent="0.25">
@@ -20516,42 +20614,42 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N227" t="s">
         <v>1747</v>
-      </c>
-      <c r="N227" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N228" t="s">
         <v>1749</v>
-      </c>
-      <c r="N228" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N229" t="s">
         <v>1751</v>
-      </c>
-      <c r="N229" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
+        <v>1752</v>
+      </c>
+      <c r="N230" t="s">
         <v>1753</v>
-      </c>
-      <c r="N230" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N231" t="s">
         <v>1755</v>
-      </c>
-      <c r="N231" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="232" spans="2:14" x14ac:dyDescent="0.25">
@@ -20559,16 +20657,16 @@
         <v>1</v>
       </c>
       <c r="C232" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D232" t="s">
         <v>1757</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N232" t="s">
         <v>1758</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1757</v>
-      </c>
-      <c r="N232" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="233" spans="2:14" x14ac:dyDescent="0.25">
@@ -20576,24 +20674,24 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D233" t="s">
         <v>1760</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
+        <v>1759</v>
+      </c>
+      <c r="N233" t="s">
         <v>1761</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1760</v>
-      </c>
-      <c r="N233" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
+        <v>1762</v>
+      </c>
+      <c r="N234" t="s">
         <v>1763</v>
-      </c>
-      <c r="N234" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="235" spans="2:14" x14ac:dyDescent="0.25">
@@ -20601,83 +20699,83 @@
         <v>1</v>
       </c>
       <c r="C235" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D235" t="s">
         <v>1765</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
+        <v>1764</v>
+      </c>
+      <c r="N235" t="s">
         <v>1766</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1765</v>
-      </c>
-      <c r="N235" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
+        <v>1767</v>
+      </c>
+      <c r="N236" t="s">
         <v>1768</v>
-      </c>
-      <c r="N236" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N237" t="s">
         <v>1770</v>
-      </c>
-      <c r="N237" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
+        <v>1771</v>
+      </c>
+      <c r="N238" t="s">
         <v>1772</v>
-      </c>
-      <c r="N238" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
+        <v>1773</v>
+      </c>
+      <c r="N239" t="s">
         <v>1774</v>
-      </c>
-      <c r="N239" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D240" t="s">
         <v>1776</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>1777</v>
       </c>
-      <c r="E240" t="s">
+      <c r="N240" t="s">
         <v>1778</v>
-      </c>
-      <c r="N240" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
+        <v>1779</v>
+      </c>
+      <c r="N241" t="s">
         <v>1780</v>
-      </c>
-      <c r="N241" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C242" s="23" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N242" t="s">
         <v>1782</v>
-      </c>
-      <c r="N242" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="243" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C243" s="23" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="N243" t="s">
         <v>1484</v>
@@ -20685,56 +20783,56 @@
     </row>
     <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C244" s="23" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N244" t="s">
         <v>1785</v>
-      </c>
-      <c r="N244" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N245" t="s">
         <v>1787</v>
-      </c>
-      <c r="N245" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
+        <v>1788</v>
+      </c>
+      <c r="N246" t="s">
         <v>1789</v>
-      </c>
-      <c r="N246" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
+        <v>1790</v>
+      </c>
+      <c r="N247" t="s">
         <v>1791</v>
-      </c>
-      <c r="N247" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H248" t="s">
         <v>1793</v>
       </c>
-      <c r="H248" t="s">
+      <c r="N248" t="s">
         <v>1794</v>
-      </c>
-      <c r="N248" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H249" t="s">
         <v>1796</v>
       </c>
-      <c r="H249" t="s">
+      <c r="N249" t="s">
         <v>1797</v>
-      </c>
-      <c r="N249" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="250" spans="2:14" x14ac:dyDescent="0.25">
@@ -20742,24 +20840,24 @@
         <v>1</v>
       </c>
       <c r="C250" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D250" t="s">
         <v>1799</v>
       </c>
-      <c r="D250" t="s">
+      <c r="N250" t="s">
         <v>1800</v>
-      </c>
-      <c r="N250" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H251" t="s">
         <v>1802</v>
       </c>
-      <c r="H251" t="s">
+      <c r="N251" t="s">
         <v>1803</v>
-      </c>
-      <c r="N251" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="252" spans="2:14" x14ac:dyDescent="0.25">
@@ -20767,90 +20865,90 @@
         <v>1</v>
       </c>
       <c r="C252" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D252" t="s">
         <v>1805</v>
       </c>
-      <c r="D252" t="s">
+      <c r="H252" t="s">
         <v>1806</v>
       </c>
-      <c r="H252" t="s">
+      <c r="N252" t="s">
         <v>1807</v>
-      </c>
-      <c r="N252" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C253" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H253" t="s">
         <v>1809</v>
       </c>
-      <c r="H253" t="s">
+      <c r="N253" t="s">
         <v>1810</v>
-      </c>
-      <c r="N253" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H254" t="s">
         <v>1812</v>
       </c>
-      <c r="H254" t="s">
+      <c r="N254" t="s">
         <v>1813</v>
-      </c>
-      <c r="N254" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C255" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N255" t="s">
         <v>1815</v>
-      </c>
-      <c r="H255" t="s">
-        <v>1800</v>
-      </c>
-      <c r="N255" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H256" t="s">
         <v>1817</v>
       </c>
-      <c r="H256" t="s">
+      <c r="N256" t="s">
         <v>1818</v>
-      </c>
-      <c r="N256" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G257" t="s">
         <v>1820</v>
       </c>
-      <c r="G257" t="s">
+      <c r="H257" t="s">
         <v>1821</v>
       </c>
-      <c r="H257" t="s">
+      <c r="N257" t="s">
         <v>1822</v>
-      </c>
-      <c r="N257" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N258" t="s">
         <v>1824</v>
-      </c>
-      <c r="N258" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="259" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C259" t="s">
+        <v>1825</v>
+      </c>
+      <c r="N259" t="s">
         <v>1826</v>
-      </c>
-      <c r="N259" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="260" spans="2:14" x14ac:dyDescent="0.25">
@@ -20858,13 +20956,13 @@
         <v>1</v>
       </c>
       <c r="C260" s="21" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D260" s="21" t="s">
         <v>1207</v>
       </c>
       <c r="N260" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="261" spans="2:14" x14ac:dyDescent="0.25">
@@ -20872,117 +20970,117 @@
         <v>1</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D261" s="21" t="s">
         <v>1223</v>
       </c>
       <c r="N261" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
+        <v>1831</v>
+      </c>
+      <c r="N262" t="s">
         <v>1832</v>
-      </c>
-      <c r="N262" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N263" t="s">
         <v>1834</v>
-      </c>
-      <c r="N263" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
+        <v>1835</v>
+      </c>
+      <c r="N264" t="s">
         <v>1836</v>
-      </c>
-      <c r="N264" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
+        <v>1837</v>
+      </c>
+      <c r="N265" t="s">
         <v>1838</v>
-      </c>
-      <c r="N265" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N266" t="s">
         <v>1840</v>
-      </c>
-      <c r="N266" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
+        <v>1841</v>
+      </c>
+      <c r="N267" t="s">
         <v>1842</v>
-      </c>
-      <c r="N267" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
+        <v>1843</v>
+      </c>
+      <c r="N268" t="s">
         <v>1844</v>
-      </c>
-      <c r="N268" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
+        <v>1845</v>
+      </c>
+      <c r="N269" t="s">
         <v>1846</v>
-      </c>
-      <c r="N269" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
+        <v>1847</v>
+      </c>
+      <c r="N270" t="s">
         <v>1848</v>
-      </c>
-      <c r="N270" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
+        <v>1849</v>
+      </c>
+      <c r="N271" t="s">
         <v>1850</v>
-      </c>
-      <c r="N271" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N272" t="s">
         <v>1852</v>
-      </c>
-      <c r="N272" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="273" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C273" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N273" t="s">
         <v>1854</v>
-      </c>
-      <c r="N273" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="274" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C274" t="s">
+        <v>1855</v>
+      </c>
+      <c r="N274" t="s">
         <v>1856</v>
-      </c>
-      <c r="N274" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="275" spans="3:14" x14ac:dyDescent="0.25">
@@ -20990,150 +21088,150 @@
         <v>1603</v>
       </c>
       <c r="N275" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="276" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C276" t="s">
+        <v>1858</v>
+      </c>
+      <c r="N276" t="s">
         <v>1859</v>
-      </c>
-      <c r="N276" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="277" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C277" t="s">
+        <v>1860</v>
+      </c>
+      <c r="N277" t="s">
         <v>1861</v>
-      </c>
-      <c r="N277" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="278" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C278" t="s">
+        <v>1862</v>
+      </c>
+      <c r="N278" t="s">
         <v>1863</v>
-      </c>
-      <c r="N278" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="279" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C279" t="s">
+        <v>1864</v>
+      </c>
+      <c r="N279" t="s">
         <v>1865</v>
-      </c>
-      <c r="N279" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="280" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C280" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N280" t="s">
         <v>1867</v>
-      </c>
-      <c r="N280" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="281" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C281" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N281" t="s">
         <v>1869</v>
-      </c>
-      <c r="N281" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="282" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C282" t="s">
+        <v>1870</v>
+      </c>
+      <c r="N282" t="s">
         <v>1871</v>
-      </c>
-      <c r="N282" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="283" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C283" t="s">
+        <v>1872</v>
+      </c>
+      <c r="N283" t="s">
         <v>1873</v>
-      </c>
-      <c r="N283" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="284" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C284" t="s">
+        <v>1874</v>
+      </c>
+      <c r="N284" t="s">
         <v>1875</v>
-      </c>
-      <c r="N284" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="285" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C285" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N285" t="s">
         <v>1877</v>
-      </c>
-      <c r="N285" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="286" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C286" t="s">
+        <v>1878</v>
+      </c>
+      <c r="N286" t="s">
         <v>1879</v>
-      </c>
-      <c r="N286" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="287" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C287" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N287" t="s">
         <v>1881</v>
-      </c>
-      <c r="N287" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="288" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C288" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N288" t="s">
         <v>1883</v>
-      </c>
-      <c r="N288" t="s">
-        <v>1884</v>
       </c>
     </row>
     <row r="289" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C289" t="s">
+        <v>1884</v>
+      </c>
+      <c r="N289" t="s">
         <v>1885</v>
-      </c>
-      <c r="N289" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="290" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C290" t="s">
+        <v>1886</v>
+      </c>
+      <c r="N290" t="s">
         <v>1887</v>
-      </c>
-      <c r="N290" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="291" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C291" t="s">
+        <v>1888</v>
+      </c>
+      <c r="N291" t="s">
         <v>1889</v>
-      </c>
-      <c r="N291" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="292" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C292" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="293" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C293" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="294" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C294" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="295" spans="3:14" x14ac:dyDescent="0.25">
@@ -21143,53 +21241,53 @@
     </row>
     <row r="296" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C296" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="297" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C297" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="298" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C298" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="299" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C299" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="300" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C300" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="301" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C301" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="302" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C302" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="303" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C303" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H303" t="s">
         <v>1901</v>
-      </c>
-      <c r="H303" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="304" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C304" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H304" t="s">
         <v>1903</v>
-      </c>
-      <c r="H304" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="305" spans="2:11" x14ac:dyDescent="0.25">
@@ -21197,57 +21295,57 @@
         <v>1</v>
       </c>
       <c r="C305" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D305" t="s">
         <v>1905</v>
       </c>
-      <c r="D305" t="s">
+      <c r="E305" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H305" t="s">
         <v>1906</v>
-      </c>
-      <c r="E305" t="s">
-        <v>1905</v>
-      </c>
-      <c r="H305" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="306" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C306" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H306" t="s">
         <v>1908</v>
-      </c>
-      <c r="H306" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="307" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C307" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H307" t="s">
         <v>1910</v>
-      </c>
-      <c r="H307" t="s">
-        <v>1911</v>
       </c>
     </row>
     <row r="308" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C308" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="309" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C309" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="310" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C310" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="311" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C311" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="312" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C312" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="K312" s="24">
         <f>151.67*12</f>
@@ -21256,25 +21354,25 @@
     </row>
     <row r="313" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C313" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="314" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C314" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="315" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C315" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="316" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C316" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H316" t="s">
         <v>1920</v>
-      </c>
-      <c r="H316" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="317" spans="2:11" x14ac:dyDescent="0.25">
@@ -21285,7 +21383,7 @@
         <v>1408</v>
       </c>
       <c r="D317" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="318" spans="2:11" x14ac:dyDescent="0.25">
@@ -21296,7 +21394,7 @@
         <v>1610</v>
       </c>
       <c r="D318" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="319" spans="2:11" x14ac:dyDescent="0.25">
@@ -21304,16 +21402,16 @@
         <v>1</v>
       </c>
       <c r="C319" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D319" t="s">
         <v>1923</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H319" t="s">
         <v>1924</v>
-      </c>
-      <c r="E319" t="s">
-        <v>1923</v>
-      </c>
-      <c r="H319" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="320" spans="2:11" x14ac:dyDescent="0.25">
@@ -21321,24 +21419,24 @@
         <v>1</v>
       </c>
       <c r="C320" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D320" t="s">
         <v>1926</v>
       </c>
-      <c r="D320" t="s">
+      <c r="E320" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H320" t="s">
         <v>1927</v>
-      </c>
-      <c r="E320" t="s">
-        <v>1926</v>
-      </c>
-      <c r="H320" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C321" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H321" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.25">
@@ -21346,24 +21444,24 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D322" t="s">
         <v>1930</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>1931</v>
       </c>
-      <c r="E322" t="s">
+      <c r="H322" t="s">
         <v>1932</v>
-      </c>
-      <c r="H322" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C323" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H323" t="s">
         <v>1934</v>
-      </c>
-      <c r="H323" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.25">
@@ -21371,13 +21469,13 @@
         <v>1</v>
       </c>
       <c r="C324" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D324" t="s">
         <v>1546</v>
       </c>
       <c r="H324" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.25">
@@ -21385,13 +21483,13 @@
         <v>1</v>
       </c>
       <c r="C325" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D325" t="s">
         <v>1938</v>
       </c>
-      <c r="D325" t="s">
+      <c r="H325" t="s">
         <v>1939</v>
-      </c>
-      <c r="H325" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.25">
@@ -21399,31 +21497,31 @@
         <v>1</v>
       </c>
       <c r="C326" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D326" t="s">
         <v>1941</v>
       </c>
-      <c r="D326" t="s">
+      <c r="G326" t="s">
         <v>1942</v>
       </c>
-      <c r="G326" t="s">
+      <c r="H326" t="s">
         <v>1943</v>
-      </c>
-      <c r="H326" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C327" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C328" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C329" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.25">
@@ -21431,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D330" t="s">
         <v>1647</v>
@@ -21442,10 +21540,10 @@
         <v>1</v>
       </c>
       <c r="C331" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D331" t="s">
         <v>1949</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.25">
@@ -21453,20 +21551,20 @@
         <v>1</v>
       </c>
       <c r="C332" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D332" t="s">
         <v>1951</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C333" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C334" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.25">
@@ -21474,20 +21572,20 @@
         <v>1</v>
       </c>
       <c r="C335" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D335" t="s">
         <v>1955</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C336" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C337" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
@@ -21495,101 +21593,101 @@
         <v>1</v>
       </c>
       <c r="C338" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D338" t="s">
         <v>1959</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C339" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C340" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C341" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C342" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C343" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C344" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D344" t="s">
         <v>1966</v>
       </c>
-      <c r="D344" t="s">
+      <c r="F344" t="s">
         <v>1967</v>
-      </c>
-      <c r="F344" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C345" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C346" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C347" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C348" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C349" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C350" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C351" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C352" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C353" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C354" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C355" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
@@ -21600,7 +21698,7 @@
         <v>1490</v>
       </c>
       <c r="D356" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
@@ -21611,7 +21709,7 @@
         <v>1488</v>
       </c>
       <c r="D357" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
@@ -21652,7 +21750,7 @@
         <v>1</v>
       </c>
       <c r="C361" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D361" t="s">
         <v>1327</v>
@@ -21663,10 +21761,10 @@
         <v>1</v>
       </c>
       <c r="C362" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D362" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
@@ -21674,10 +21772,10 @@
         <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D363" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
   </sheetData>
@@ -21702,15 +21800,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C2" t="s">
         <v>1985</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1986</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -21740,7 +21838,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -21960,12 +22058,12 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -22260,22 +22358,22 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -22290,7 +22388,7 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -22320,7 +22418,7 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -22379,12 +22477,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -22392,27 +22490,27 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -22420,7 +22518,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -22428,7 +22526,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -22457,7 +22555,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B13" s="25"/>
     </row>
@@ -22503,7 +22601,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -22513,12 +22611,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -22551,37 +22649,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>2005</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>2006</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>2007</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="27" t="s">
         <v>2008</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>2009</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>2010</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2012</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -22589,7 +22687,7 @@
         <v>720</v>
       </c>
       <c r="B2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -22608,7 +22706,7 @@
         <v>722</v>
       </c>
       <c r="B3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -22627,7 +22725,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28">
@@ -22643,7 +22741,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
@@ -22659,7 +22757,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -22675,7 +22773,7 @@
         <v>883</v>
       </c>
       <c r="B7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28">
@@ -22691,7 +22789,7 @@
         <v>885</v>
       </c>
       <c r="B8" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D8" s="28">
         <v>1</v>
@@ -22707,7 +22805,7 @@
         <v>881</v>
       </c>
       <c r="B9" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -22723,7 +22821,7 @@
         <v>879</v>
       </c>
       <c r="B10" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -22737,7 +22835,7 @@
         <v>777</v>
       </c>
       <c r="B11" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28">
@@ -22754,7 +22852,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28">
@@ -22768,7 +22866,7 @@
         <v>845</v>
       </c>
       <c r="B13" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28">
@@ -22782,7 +22880,7 @@
         <v>781</v>
       </c>
       <c r="B14" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D14" s="28">
         <v>1</v>
@@ -22799,7 +22897,7 @@
         <v>779</v>
       </c>
       <c r="B15" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D15" s="28">
         <v>1</v>
@@ -22816,7 +22914,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D16" s="28">
         <v>1</v>
@@ -22830,7 +22928,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D17" s="28">
         <v>1</v>
@@ -22844,7 +22942,7 @@
         <v>847</v>
       </c>
       <c r="B18" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D18" s="28">
         <v>1</v>
@@ -22858,7 +22956,7 @@
         <v>849</v>
       </c>
       <c r="B19" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D19" s="28">
         <v>1</v>
@@ -22872,7 +22970,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
@@ -22886,7 +22984,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -22900,7 +22998,7 @@
         <v>841</v>
       </c>
       <c r="B22" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -22914,7 +23012,7 @@
         <v>843</v>
       </c>
       <c r="B23" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -22926,7 +23024,7 @@
         <v>839</v>
       </c>
       <c r="B24" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -22938,7 +23036,7 @@
         <v>763</v>
       </c>
       <c r="B25" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28">
@@ -22955,7 +23053,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28">
@@ -22972,7 +23070,7 @@
         <v>817</v>
       </c>
       <c r="B27" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28">
@@ -22989,7 +23087,7 @@
         <v>767</v>
       </c>
       <c r="B28" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="D28" s="28">
         <v>1</v>
@@ -23006,7 +23104,7 @@
         <v>765</v>
       </c>
       <c r="B29" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D29" s="28">
         <v>1</v>
@@ -23023,7 +23121,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D30" s="28">
         <v>1</v>
@@ -23040,7 +23138,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -23055,7 +23153,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
@@ -23072,7 +23170,7 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -23084,7 +23182,7 @@
         <v>819</v>
       </c>
       <c r="B34" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D34" s="28">
         <v>1</v>
@@ -23101,7 +23199,7 @@
         <v>821</v>
       </c>
       <c r="B35" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -23116,7 +23214,7 @@
         <v>813</v>
       </c>
       <c r="B36" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
@@ -23133,7 +23231,7 @@
         <v>815</v>
       </c>
       <c r="B37" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
@@ -23148,7 +23246,7 @@
         <v>803</v>
       </c>
       <c r="B38" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D38" s="28">
         <v>1</v>
@@ -23165,7 +23263,7 @@
         <v>168</v>
       </c>
       <c r="B39" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D39" s="28">
         <v>1</v>
@@ -23182,7 +23280,7 @@
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D40" s="28">
         <v>1</v>
@@ -23199,7 +23297,7 @@
         <v>791</v>
       </c>
       <c r="B41" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D41" s="28">
         <v>1</v>
@@ -23216,7 +23314,7 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="28">
@@ -23233,7 +23331,7 @@
         <v>861</v>
       </c>
       <c r="B43" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="28">
@@ -23250,7 +23348,7 @@
         <v>793</v>
       </c>
       <c r="B44" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D44" s="28">
         <v>1</v>
@@ -23264,10 +23362,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B45" t="s">
         <v>2057</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2058</v>
       </c>
       <c r="D45" s="28">
         <v>1</v>
@@ -23284,7 +23382,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
@@ -23301,7 +23399,7 @@
         <v>863</v>
       </c>
       <c r="B47" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D47" s="28">
         <v>1</v>
@@ -23318,7 +23416,7 @@
         <v>859</v>
       </c>
       <c r="B48" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
@@ -23335,7 +23433,7 @@
         <v>783</v>
       </c>
       <c r="B49" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
@@ -23350,7 +23448,7 @@
         <v>769</v>
       </c>
       <c r="B50" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -23365,7 +23463,7 @@
         <v>805</v>
       </c>
       <c r="B51" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
@@ -23383,7 +23481,7 @@
         <v>795</v>
       </c>
       <c r="B52" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -23401,7 +23499,7 @@
         <v>726</v>
       </c>
       <c r="B53" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
@@ -23418,7 +23516,7 @@
         <v>789</v>
       </c>
       <c r="B54" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
@@ -23436,7 +23534,7 @@
         <v>775</v>
       </c>
       <c r="B55" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -23454,7 +23552,7 @@
         <v>801</v>
       </c>
       <c r="B56" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
@@ -23472,7 +23570,7 @@
         <v>811</v>
       </c>
       <c r="B57" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
@@ -23490,7 +23588,7 @@
         <v>785</v>
       </c>
       <c r="B58" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
@@ -23505,7 +23603,7 @@
         <v>771</v>
       </c>
       <c r="B59" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
@@ -23523,7 +23621,7 @@
         <v>807</v>
       </c>
       <c r="B60" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
@@ -23541,7 +23639,7 @@
         <v>797</v>
       </c>
       <c r="B61" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
@@ -23559,7 +23657,7 @@
         <v>724</v>
       </c>
       <c r="B62" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -23576,7 +23674,7 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
@@ -23593,7 +23691,7 @@
         <v>887</v>
       </c>
       <c r="B64" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28">
@@ -23609,7 +23707,7 @@
         <v>787</v>
       </c>
       <c r="B65" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
@@ -23626,7 +23724,7 @@
         <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
@@ -23640,7 +23738,7 @@
         <v>851</v>
       </c>
       <c r="B67" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28">
@@ -23656,7 +23754,7 @@
         <v>773</v>
       </c>
       <c r="B68" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
@@ -23673,7 +23771,7 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
@@ -23690,7 +23788,7 @@
         <v>823</v>
       </c>
       <c r="B70" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -23704,7 +23802,7 @@
         <v>809</v>
       </c>
       <c r="B71" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
@@ -23721,7 +23819,7 @@
         <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
@@ -23738,7 +23836,7 @@
         <v>799</v>
       </c>
       <c r="B73" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
@@ -23755,7 +23853,7 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
@@ -23772,7 +23870,7 @@
         <v>865</v>
       </c>
       <c r="B75" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -23818,7 +23916,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>5</v>
@@ -23827,36 +23925,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>2090</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>2091</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>2092</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>2093</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>2094</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>2095</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="81" t="s">
         <v>2096</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="M1" s="31" t="s">
         <v>2097</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>877</v>
@@ -23875,7 +23973,7 @@
       <c r="J2" s="33"/>
       <c r="L2" s="81"/>
       <c r="M2" s="34" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -23884,7 +23982,7 @@
         <v>736</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -23899,7 +23997,7 @@
       <c r="J3"/>
       <c r="L3" s="81"/>
       <c r="M3" s="35" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -23919,7 +24017,7 @@
       <c r="J4" s="33"/>
       <c r="L4" s="81"/>
       <c r="M4" s="36" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -23933,7 +24031,7 @@
       <c r="F5"/>
       <c r="G5" s="32"/>
       <c r="H5" s="29" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="33"/>
@@ -24004,18 +24102,18 @@
         <v>1356</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="32"/>
       <c r="H10" s="29" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="I10"/>
       <c r="J10" s="29" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -24059,13 +24157,13 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="37" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>942</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="37">
@@ -24075,7 +24173,7 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" s="41" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -24087,7 +24185,7 @@
         <v>124</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37">
@@ -24118,14 +24216,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="J15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="37" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>873</v>
@@ -24138,10 +24236,10 @@
       <c r="G16" s="32"/>
       <c r="H16"/>
       <c r="I16" s="29" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>2111</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -24159,13 +24257,13 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" s="29" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="38" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>44</v>
@@ -24177,7 +24275,7 @@
       </c>
       <c r="G18" s="32"/>
       <c r="H18" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="I18"/>
       <c r="J18" s="29"/>
@@ -24197,7 +24295,7 @@
       </c>
       <c r="I19"/>
       <c r="J19" s="29" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -24255,7 +24353,7 @@
       <c r="F23"/>
       <c r="G23" s="32"/>
       <c r="H23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -24285,7 +24383,7 @@
       <c r="F25"/>
       <c r="G25" s="32"/>
       <c r="H25" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -24301,7 +24399,7 @@
       <c r="F26"/>
       <c r="G26" s="32"/>
       <c r="H26" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -24471,7 +24569,7 @@
       <c r="F38"/>
       <c r="G38" s="32"/>
       <c r="H38" s="29" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
@@ -24486,15 +24584,15 @@
       </c>
       <c r="D39"/>
       <c r="E39" s="17" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F39"/>
       <c r="G39" s="32"/>
       <c r="H39" s="29" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I39" s="29" t="s">
         <v>2121</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>2122</v>
       </c>
       <c r="J39"/>
     </row>
@@ -24508,15 +24606,15 @@
       </c>
       <c r="D40"/>
       <c r="E40" s="17" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="F40"/>
       <c r="G40" s="32"/>
       <c r="H40" s="80" t="s">
+        <v>2123</v>
+      </c>
+      <c r="I40" s="29" t="s">
         <v>2124</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>2125</v>
       </c>
       <c r="J40"/>
     </row>
@@ -24528,13 +24626,13 @@
       </c>
       <c r="D41"/>
       <c r="E41" s="17" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F41"/>
       <c r="G41" s="32"/>
       <c r="H41" s="80"/>
       <c r="I41" s="29" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="J41"/>
     </row>
@@ -24546,19 +24644,19 @@
       </c>
       <c r="D42"/>
       <c r="E42" s="17" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F42"/>
       <c r="G42" s="32"/>
       <c r="H42" s="80"/>
       <c r="I42" s="29" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -24576,7 +24674,7 @@
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" s="17" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
@@ -24584,19 +24682,19 @@
         <v>243</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F45" s="37">
         <v>1</v>
@@ -24604,10 +24702,10 @@
       <c r="G45"/>
       <c r="H45" s="83"/>
       <c r="I45" s="45" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J45" s="46" t="s">
         <v>2135</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24616,7 +24714,7 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
@@ -24624,7 +24722,7 @@
         <v>257</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="J46" s="46"/>
     </row>
@@ -24634,13 +24732,13 @@
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" s="80"/>
       <c r="I47" s="29" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="J47" s="46"/>
     </row>
@@ -24650,7 +24748,7 @@
       <c r="C48"/>
       <c r="D48" s="44"/>
       <c r="E48" s="44" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F48" s="37">
         <v>1</v>
@@ -24658,7 +24756,7 @@
       <c r="G48"/>
       <c r="H48" s="80"/>
       <c r="I48" s="44" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="J48" s="46"/>
     </row>
@@ -24678,7 +24776,7 @@
         <v>280</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="J49" s="46"/>
     </row>
@@ -24695,10 +24793,10 @@
       </c>
       <c r="G50"/>
       <c r="H50" s="45" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I50" s="44" t="s">
         <v>2144</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>2145</v>
       </c>
       <c r="J50" s="46"/>
     </row>
@@ -24715,7 +24813,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -24742,7 +24840,7 @@
       <c r="G53" s="32"/>
       <c r="I53"/>
       <c r="J53" s="47" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -24757,15 +24855,15 @@
       <c r="G54" s="32"/>
       <c r="I54"/>
       <c r="J54" s="47" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="K54" s="48" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -24791,10 +24889,10 @@
       </c>
       <c r="G56" s="32"/>
       <c r="I56" s="29" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="J56" s="46" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -24812,10 +24910,10 @@
       </c>
       <c r="G57" s="32"/>
       <c r="I57" s="29" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="J57" s="46" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -24829,12 +24927,12 @@
       <c r="F58"/>
       <c r="G58" s="49"/>
       <c r="I58" s="29" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -24885,7 +24983,7 @@
       </c>
       <c r="I62"/>
       <c r="L62" s="80" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -24897,7 +24995,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="17" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>937</v>
@@ -24927,7 +25025,7 @@
         <v>1007</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="I65"/>
     </row>
@@ -24939,10 +25037,10 @@
         <v>748</v>
       </c>
       <c r="H66" s="29" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I66" s="29" t="s">
         <v>2157</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>2158</v>
       </c>
     </row>
   </sheetData>
@@ -24977,53 +25075,53 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1" s="50" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>2159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="52" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>2160</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="53" t="s">
         <v>2161</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>1959</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>1960</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>1474</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>1247</v>
@@ -25036,20 +25134,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B5" s="54" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>1955</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>1956</v>
       </c>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>1485</v>
@@ -25062,7 +25160,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>1559</v>
@@ -25075,10 +25173,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C8" s="59" t="s">
         <v>1308</v>
@@ -25088,10 +25186,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>1647</v>
@@ -25101,7 +25199,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>1562</v>
@@ -25114,7 +25212,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>1524</v>
@@ -25127,7 +25225,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>731</v>
@@ -25138,23 +25236,23 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B13" s="54" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>1951</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>1952</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C14" s="55" t="s">
         <v>1081</v>
@@ -25164,10 +25262,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>976</v>
@@ -25177,10 +25275,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C16" s="55" t="s">
         <v>978</v>
@@ -25190,10 +25288,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="56"/>
@@ -25201,7 +25299,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>1462</v>
@@ -25214,7 +25312,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>1547</v>
@@ -25227,7 +25325,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>1460</v>
@@ -25238,7 +25336,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>1550</v>
@@ -25251,7 +25349,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>1518</v>
@@ -25264,7 +25362,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>1465</v>
@@ -25277,20 +25375,20 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B24" s="54" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>1938</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>1939</v>
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>1553</v>
@@ -25303,10 +25401,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="56"/>
@@ -25314,7 +25412,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>1556</v>
@@ -25327,7 +25425,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>1521</v>
@@ -25340,20 +25438,20 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B29" s="54" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C29" s="55" t="s">
         <v>1941</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>1942</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>56</v>
@@ -25364,7 +25462,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>1273</v>
@@ -25375,10 +25473,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="56"/>
@@ -25386,10 +25484,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="56"/>
@@ -25397,7 +25495,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>1608</v>
@@ -25410,7 +25508,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>277</v>
@@ -25423,7 +25521,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>300</v>
@@ -25434,10 +25532,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" s="56"/>
@@ -25445,10 +25543,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" s="56"/>
@@ -25456,10 +25554,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="56"/>
@@ -25467,10 +25565,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B40" s="54" t="s">
         <v>2201</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>2202</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="56"/>
@@ -25478,10 +25576,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B41" s="54" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="56"/>
@@ -25489,10 +25587,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="56"/>
@@ -25500,10 +25598,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="56"/>
@@ -25511,10 +25609,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="56"/>
@@ -25522,10 +25620,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C45" s="60"/>
       <c r="D45" s="56"/>
@@ -25533,20 +25631,20 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B46" s="54" t="s">
         <v>2208</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="C46" s="60" t="s">
         <v>2209</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>2210</v>
       </c>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B47" s="54" t="s">
         <v>1541</v>
@@ -25557,7 +25655,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>1545</v>
@@ -25568,7 +25666,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="B49" s="54" t="s">
         <v>1543</v>
@@ -25579,7 +25677,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B50" s="54" t="s">
         <v>1535</v>
@@ -25590,7 +25688,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B51" s="54" t="s">
         <v>1537</v>
@@ -25601,10 +25699,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B52" s="54" t="s">
         <v>2216</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>2217</v>
       </c>
       <c r="C52" s="58" t="s">
         <v>1151</v>
@@ -25614,7 +25712,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B53" s="54" t="s">
         <v>1507</v>
@@ -25625,7 +25723,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="54" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B54" s="54" t="s">
         <v>1516</v>
@@ -25636,7 +25734,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="54" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B55" s="54" t="s">
         <v>1515</v>
@@ -25647,7 +25745,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B56" s="54" t="s">
         <v>1503</v>
@@ -25658,7 +25756,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B57" s="54" t="s">
         <v>1505</v>
@@ -25672,7 +25770,7 @@
         <v>1089</v>
       </c>
       <c r="B58" s="54" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C58" s="60"/>
       <c r="D58" s="56"/>
@@ -25680,10 +25778,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B59" s="54" t="s">
         <v>2224</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>2225</v>
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="56"/>
@@ -25691,7 +25789,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B60" s="54" t="s">
         <v>1644</v>
@@ -25702,10 +25800,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B61" s="54" t="s">
         <v>2227</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>2228</v>
       </c>
       <c r="C61" s="60"/>
       <c r="D61" s="56"/>
@@ -25713,7 +25811,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B62" s="54" t="s">
         <v>1670</v>
@@ -25724,7 +25822,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B63" s="54" t="s">
         <v>1164</v>
@@ -25737,7 +25835,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B64" s="54" t="s">
         <v>1447</v>
@@ -25750,7 +25848,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B65" s="54" t="s">
         <v>1313</v>
@@ -25763,7 +25861,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B66" s="54" t="s">
         <v>1149</v>
@@ -25776,36 +25874,36 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C69" s="60"/>
       <c r="D69" s="56"/>
@@ -25813,10 +25911,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="56"/>
@@ -25824,10 +25922,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="56"/>
@@ -25835,20 +25933,20 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B72" s="54" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B73" s="54" t="s">
         <v>1321</v>
@@ -25861,7 +25959,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B74" s="54" t="s">
         <v>1513</v>
@@ -25872,20 +25970,20 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C75" s="60"/>
       <c r="D75" s="56"/>
       <c r="E75" s="56" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B76" s="54" t="s">
         <v>1353</v>
@@ -25898,7 +25996,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B77" s="54" t="s">
         <v>1093</v>
@@ -25911,7 +26009,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B78" s="54" t="s">
         <v>1416</v>
@@ -25921,7 +26019,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B79" s="54" t="s">
         <v>1331</v>
@@ -25933,29 +26031,29 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C80" s="55" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D80" s="56"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B81" s="54" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C81" s="60"/>
       <c r="D81" s="56"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="54" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B82" s="54" t="s">
         <v>1157</v>
@@ -25968,7 +26066,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="54" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B83" s="54" t="s">
         <v>1285</v>
@@ -25980,22 +26078,22 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C84" s="59" t="s">
         <v>1308</v>
       </c>
       <c r="D84" s="56"/>
       <c r="E84" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B85" s="54" t="s">
         <v>1307</v>
@@ -26007,7 +26105,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B86" s="54" t="s">
         <v>1259</v>
@@ -26017,7 +26115,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="54" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B87" s="54" t="s">
         <v>1236</v>
@@ -26029,7 +26127,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B88" s="54" t="s">
         <v>1269</v>
@@ -26039,7 +26137,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B89" s="54" t="s">
         <v>1509</v>
@@ -26049,77 +26147,77 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="54" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B90" s="54" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C90" s="60"/>
       <c r="D90" s="56"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="54" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C91" s="60"/>
       <c r="D91" s="56"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B92" s="54" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C92" s="55" t="s">
         <v>1799</v>
-      </c>
-      <c r="C92" s="55" t="s">
-        <v>1800</v>
       </c>
       <c r="D92" s="56"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="54" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B93" s="54" t="s">
         <v>1679</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D93" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="54" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B94" s="54" t="s">
         <v>1674</v>
       </c>
       <c r="C94" s="55" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="D94" s="56"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="54" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B95" s="54" t="s">
         <v>2265</v>
       </c>
-      <c r="B95" s="54" t="s">
-        <v>2266</v>
-      </c>
       <c r="C95" s="55" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D95" s="56"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="54" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B96" s="54" t="s">
         <v>1384</v>
@@ -26131,31 +26229,31 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="54" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B97" s="54" t="s">
         <v>2268</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="C97" s="55" t="s">
         <v>2269</v>
-      </c>
-      <c r="C97" s="55" t="s">
-        <v>2270</v>
       </c>
       <c r="D97" s="56"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="54" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C98" s="55" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D98" s="56"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="54" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B99" s="54" t="s">
         <v>1646</v>
@@ -26165,13 +26263,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="54" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B100" s="54" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D100" s="56"/>
     </row>
@@ -26200,2785 +26298,2785 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2" t="s">
         <v>2274</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B3" t="s">
         <v>2276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B4" t="s">
         <v>2278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B5" t="s">
         <v>2280</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B6" t="s">
         <v>2282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2283</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B7" t="s">
         <v>2284</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B8" t="s">
         <v>2286</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B9" t="s">
         <v>2288</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B10" t="s">
         <v>2290</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B11" t="s">
         <v>2292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2293</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B12" t="s">
         <v>2294</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B13" t="s">
         <v>2296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B14" t="s">
         <v>2298</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B15" t="s">
         <v>2300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B16" t="s">
         <v>2302</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B17" t="s">
         <v>2304</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B18" t="s">
         <v>2306</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B19" t="s">
         <v>2308</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2309</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B20" t="s">
         <v>2310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B21" t="s">
         <v>2312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B22" t="s">
         <v>2314</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B23" t="s">
         <v>2316</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2317</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B24" t="s">
         <v>2318</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2319</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B25" t="s">
         <v>2320</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2321</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B26" t="s">
         <v>2322</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2323</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B27" t="s">
         <v>2324</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B28" t="s">
         <v>2326</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B29" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B30" t="s">
         <v>2329</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B31" t="s">
         <v>2331</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B32" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B33" t="s">
         <v>2334</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2335</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B34" t="s">
         <v>2336</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B35" t="s">
         <v>2338</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B36" t="s">
         <v>2340</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2341</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B37" t="s">
         <v>2342</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2343</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B38" t="s">
         <v>2344</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B39" t="s">
         <v>2346</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B40" t="s">
         <v>2348</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B41" t="s">
         <v>2350</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B42" t="s">
         <v>2352</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2353</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B43" t="s">
         <v>2354</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B44" t="s">
         <v>2356</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2357</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B45" t="s">
         <v>2358</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B46" t="s">
         <v>2360</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B47" t="s">
         <v>2362</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2363</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B48" t="s">
         <v>2364</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B49" t="s">
         <v>2366</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2367</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B50" t="s">
         <v>2368</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B51" t="s">
         <v>2370</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2371</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B52" t="s">
         <v>2372</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2373</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B53" t="s">
         <v>2374</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B54" t="s">
         <v>2376</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2377</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B55" t="s">
         <v>2378</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B56" t="s">
         <v>2380</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B57" t="s">
         <v>2382</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2383</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B58" t="s">
         <v>2384</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B59" t="s">
         <v>2386</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B60" t="s">
         <v>2388</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B61" t="s">
         <v>2390</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B62" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B63" t="s">
         <v>2393</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B64" t="s">
         <v>2395</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B65" t="s">
         <v>2397</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B66" t="s">
         <v>2399</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B67" t="s">
         <v>2401</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B68" t="s">
         <v>2403</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B69" t="s">
         <v>2405</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2406</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B70" t="s">
         <v>2407</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2408</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B71" t="s">
         <v>2409</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2410</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B72" t="s">
         <v>2411</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B73" t="s">
         <v>2413</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2414</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B74" t="s">
         <v>2415</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2416</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B75" t="s">
         <v>2417</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2418</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B76" t="s">
         <v>2419</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B77" t="s">
         <v>2421</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2422</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B78" t="s">
         <v>2423</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2424</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B79" t="s">
         <v>2425</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2426</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B80" t="s">
         <v>2427</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2428</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B81" t="s">
         <v>2429</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B82" t="s">
         <v>2431</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2432</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B83" t="s">
         <v>2433</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2434</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B84" t="s">
         <v>2435</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B85" t="s">
         <v>2437</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2438</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B86" t="s">
         <v>2439</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2440</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B87" t="s">
         <v>2441</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B88" t="s">
         <v>2443</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B89" t="s">
         <v>2445</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B90" t="s">
         <v>2447</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2448</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B91" t="s">
         <v>2449</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2450</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B92" t="s">
         <v>2451</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B93" t="s">
         <v>2453</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2454</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B94" t="s">
         <v>2455</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2456</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B95" t="s">
         <v>2457</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B96" t="s">
         <v>2459</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B97" t="s">
         <v>2461</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B98" t="s">
         <v>2463</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B99" t="s">
         <v>2465</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B100" t="s">
         <v>2467</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2468</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B101" t="s">
         <v>2469</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B104" t="s">
         <v>2473</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B105" t="s">
         <v>2475</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B106" t="s">
         <v>2477</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2478</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B107" t="s">
         <v>2479</v>
-      </c>
-      <c r="B107" t="s">
-        <v>2480</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B108" t="s">
         <v>2481</v>
-      </c>
-      <c r="B108" t="s">
-        <v>2482</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B109" t="s">
         <v>2483</v>
-      </c>
-      <c r="B109" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B110" t="s">
         <v>2485</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B111" t="s">
         <v>2487</v>
-      </c>
-      <c r="B111" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B112" t="s">
         <v>2489</v>
-      </c>
-      <c r="B112" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B113" t="s">
         <v>2491</v>
-      </c>
-      <c r="B113" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B114" t="s">
         <v>2493</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2494</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B115" t="s">
         <v>2495</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B116" t="s">
         <v>2497</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B117" t="s">
         <v>2499</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B118" t="s">
         <v>2501</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2502</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B119" t="s">
         <v>2503</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2504</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B120" t="s">
         <v>2505</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B121" t="s">
         <v>2507</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2508</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B122" t="s">
         <v>2509</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2510</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B123" t="s">
         <v>2511</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B124" t="s">
         <v>2513</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2514</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B125" t="s">
         <v>2515</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2516</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B126" t="s">
         <v>2517</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B127" t="s">
         <v>2519</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2520</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B128" t="s">
         <v>2521</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2522</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B129" t="s">
         <v>2523</v>
-      </c>
-      <c r="B129" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B130" t="s">
         <v>2525</v>
-      </c>
-      <c r="B130" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B131" t="s">
         <v>2527</v>
-      </c>
-      <c r="B131" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B132" t="s">
         <v>2529</v>
-      </c>
-      <c r="B132" t="s">
-        <v>2530</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B133" t="s">
         <v>2531</v>
-      </c>
-      <c r="B133" t="s">
-        <v>2532</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B134" t="s">
         <v>2533</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B135" t="s">
         <v>2535</v>
-      </c>
-      <c r="B135" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B136" t="s">
         <v>2537</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2538</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B137" t="s">
         <v>2539</v>
-      </c>
-      <c r="B137" t="s">
-        <v>2540</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B138" t="s">
         <v>2541</v>
-      </c>
-      <c r="B138" t="s">
-        <v>2542</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B139" t="s">
         <v>2543</v>
-      </c>
-      <c r="B139" t="s">
-        <v>2544</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B140" t="s">
         <v>2545</v>
-      </c>
-      <c r="B140" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B141" t="s">
         <v>2547</v>
-      </c>
-      <c r="B141" t="s">
-        <v>2548</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B142" t="s">
         <v>2549</v>
-      </c>
-      <c r="B142" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B143" t="s">
         <v>2551</v>
-      </c>
-      <c r="B143" t="s">
-        <v>2552</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B144" t="s">
         <v>2553</v>
-      </c>
-      <c r="B144" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B145" t="s">
         <v>2555</v>
-      </c>
-      <c r="B145" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B146" t="s">
         <v>2557</v>
-      </c>
-      <c r="B146" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B147" t="s">
         <v>2559</v>
-      </c>
-      <c r="B147" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B148" t="s">
         <v>2561</v>
-      </c>
-      <c r="B148" t="s">
-        <v>2562</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B149" t="s">
         <v>2563</v>
-      </c>
-      <c r="B149" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B150" t="s">
         <v>2565</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B151" t="s">
         <v>2567</v>
-      </c>
-      <c r="B151" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B152" t="s">
         <v>2569</v>
-      </c>
-      <c r="B152" t="s">
-        <v>2570</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B153" t="s">
         <v>2571</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B154" t="s">
         <v>2573</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2574</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B155" t="s">
         <v>2575</v>
-      </c>
-      <c r="B155" t="s">
-        <v>2576</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B156" t="s">
         <v>2577</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2578</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B157" t="s">
         <v>2579</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2580</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B158" t="s">
         <v>2581</v>
-      </c>
-      <c r="B158" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B159" t="s">
         <v>2583</v>
-      </c>
-      <c r="B159" t="s">
-        <v>2584</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B160" t="s">
         <v>2585</v>
-      </c>
-      <c r="B160" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B161" t="s">
         <v>2587</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B162" t="s">
         <v>2589</v>
-      </c>
-      <c r="B162" t="s">
-        <v>2590</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B163" t="s">
         <v>2591</v>
-      </c>
-      <c r="B163" t="s">
-        <v>2592</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B164" t="s">
         <v>2593</v>
-      </c>
-      <c r="B164" t="s">
-        <v>2594</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B165" t="s">
         <v>2595</v>
-      </c>
-      <c r="B165" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B166" t="s">
         <v>2597</v>
-      </c>
-      <c r="B166" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B167" t="s">
         <v>2599</v>
-      </c>
-      <c r="B167" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B168" t="s">
         <v>2601</v>
-      </c>
-      <c r="B168" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B169" t="s">
         <v>2603</v>
-      </c>
-      <c r="B169" t="s">
-        <v>2604</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B170" t="s">
         <v>2605</v>
-      </c>
-      <c r="B170" t="s">
-        <v>2606</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B171" t="s">
         <v>2607</v>
-      </c>
-      <c r="B171" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B172" t="s">
         <v>2609</v>
-      </c>
-      <c r="B172" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B173" t="s">
         <v>2611</v>
-      </c>
-      <c r="B173" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B174" t="s">
         <v>2613</v>
-      </c>
-      <c r="B174" t="s">
-        <v>2614</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B175" t="s">
         <v>2615</v>
-      </c>
-      <c r="B175" t="s">
-        <v>2616</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B176" t="s">
         <v>2617</v>
-      </c>
-      <c r="B176" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B177" t="s">
         <v>2619</v>
-      </c>
-      <c r="B177" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B178" t="s">
         <v>2621</v>
-      </c>
-      <c r="B178" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B179" t="s">
         <v>2623</v>
-      </c>
-      <c r="B179" t="s">
-        <v>2624</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B180" t="s">
         <v>2625</v>
-      </c>
-      <c r="B180" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B181" t="s">
         <v>2627</v>
-      </c>
-      <c r="B181" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B182" t="s">
         <v>2629</v>
-      </c>
-      <c r="B182" t="s">
-        <v>2630</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B183" t="s">
         <v>2631</v>
-      </c>
-      <c r="B183" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B184" t="s">
         <v>2633</v>
-      </c>
-      <c r="B184" t="s">
-        <v>2634</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B185" t="s">
         <v>2635</v>
-      </c>
-      <c r="B185" t="s">
-        <v>2636</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B186" t="s">
         <v>2637</v>
-      </c>
-      <c r="B186" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B187" t="s">
         <v>2639</v>
-      </c>
-      <c r="B187" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B188" t="s">
         <v>2641</v>
-      </c>
-      <c r="B188" t="s">
-        <v>2642</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B189" t="s">
         <v>2643</v>
-      </c>
-      <c r="B189" t="s">
-        <v>2644</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B190" t="s">
         <v>2645</v>
-      </c>
-      <c r="B190" t="s">
-        <v>2646</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B191" t="s">
         <v>2647</v>
-      </c>
-      <c r="B191" t="s">
-        <v>2648</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B192" t="s">
         <v>2649</v>
-      </c>
-      <c r="B192" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B193" t="s">
         <v>2651</v>
-      </c>
-      <c r="B193" t="s">
-        <v>2652</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B194" t="s">
         <v>2653</v>
-      </c>
-      <c r="B194" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B195" t="s">
         <v>2655</v>
-      </c>
-      <c r="B195" t="s">
-        <v>2656</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B196" t="s">
         <v>2657</v>
-      </c>
-      <c r="B196" t="s">
-        <v>2658</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B197" t="s">
         <v>2659</v>
-      </c>
-      <c r="B197" t="s">
-        <v>2660</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B198" t="s">
         <v>2661</v>
-      </c>
-      <c r="B198" t="s">
-        <v>2662</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B199" t="s">
         <v>2663</v>
-      </c>
-      <c r="B199" t="s">
-        <v>2664</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B200" t="s">
         <v>2665</v>
-      </c>
-      <c r="B200" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B201" t="s">
         <v>2667</v>
-      </c>
-      <c r="B201" t="s">
-        <v>2668</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B202" t="s">
         <v>2669</v>
-      </c>
-      <c r="B202" t="s">
-        <v>2670</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B203" t="s">
         <v>2671</v>
-      </c>
-      <c r="B203" t="s">
-        <v>2672</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B204" t="s">
         <v>2673</v>
-      </c>
-      <c r="B204" t="s">
-        <v>2674</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B205" t="s">
         <v>2675</v>
-      </c>
-      <c r="B205" t="s">
-        <v>2676</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B206" t="s">
         <v>2677</v>
-      </c>
-      <c r="B206" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B207" t="s">
         <v>2679</v>
-      </c>
-      <c r="B207" t="s">
-        <v>2680</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B208" t="s">
         <v>2681</v>
-      </c>
-      <c r="B208" t="s">
-        <v>2682</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B209" t="s">
         <v>2683</v>
-      </c>
-      <c r="B209" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B210" t="s">
         <v>2685</v>
-      </c>
-      <c r="B210" t="s">
-        <v>2686</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B211" t="s">
         <v>2687</v>
-      </c>
-      <c r="B211" t="s">
-        <v>2688</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B212" t="s">
         <v>2689</v>
-      </c>
-      <c r="B212" t="s">
-        <v>2690</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B213" t="s">
         <v>2691</v>
-      </c>
-      <c r="B213" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B214" t="s">
         <v>2693</v>
-      </c>
-      <c r="B214" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B215" t="s">
         <v>2695</v>
-      </c>
-      <c r="B215" t="s">
-        <v>2696</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B216" t="s">
         <v>2697</v>
-      </c>
-      <c r="B216" t="s">
-        <v>2698</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B217" t="s">
         <v>2699</v>
-      </c>
-      <c r="B217" t="s">
-        <v>2700</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B218" t="s">
         <v>2701</v>
-      </c>
-      <c r="B218" t="s">
-        <v>2702</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B219" t="s">
         <v>2703</v>
-      </c>
-      <c r="B219" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B220" t="s">
         <v>2705</v>
-      </c>
-      <c r="B220" t="s">
-        <v>2706</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B221" t="s">
         <v>2707</v>
-      </c>
-      <c r="B221" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B222" t="s">
         <v>2709</v>
-      </c>
-      <c r="B222" t="s">
-        <v>2710</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B223" t="s">
         <v>2711</v>
-      </c>
-      <c r="B223" t="s">
-        <v>2712</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B224" t="s">
         <v>2713</v>
-      </c>
-      <c r="B224" t="s">
-        <v>2714</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B225" t="s">
         <v>2715</v>
-      </c>
-      <c r="B225" t="s">
-        <v>2716</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B226" t="s">
         <v>2717</v>
-      </c>
-      <c r="B226" t="s">
-        <v>2718</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B227" t="s">
         <v>2719</v>
-      </c>
-      <c r="B227" t="s">
-        <v>2720</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B228" t="s">
         <v>2721</v>
-      </c>
-      <c r="B228" t="s">
-        <v>2722</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B229" t="s">
         <v>2723</v>
-      </c>
-      <c r="B229" t="s">
-        <v>2724</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B230" t="s">
         <v>2725</v>
-      </c>
-      <c r="B230" t="s">
-        <v>2726</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B231" t="s">
         <v>2727</v>
-      </c>
-      <c r="B231" t="s">
-        <v>2728</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B232" t="s">
         <v>2729</v>
-      </c>
-      <c r="B232" t="s">
-        <v>2730</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B233" t="s">
         <v>2731</v>
-      </c>
-      <c r="B233" t="s">
-        <v>2732</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B234" t="s">
         <v>2733</v>
-      </c>
-      <c r="B234" t="s">
-        <v>2734</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B235" t="s">
         <v>2735</v>
-      </c>
-      <c r="B235" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B236" t="s">
         <v>2737</v>
-      </c>
-      <c r="B236" t="s">
-        <v>2738</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B237" t="s">
         <v>2739</v>
-      </c>
-      <c r="B237" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B238" t="s">
         <v>2741</v>
-      </c>
-      <c r="B238" t="s">
-        <v>2742</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B239" t="s">
         <v>2743</v>
-      </c>
-      <c r="B239" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B240" t="s">
         <v>2745</v>
-      </c>
-      <c r="B240" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B241" t="s">
         <v>2747</v>
-      </c>
-      <c r="B241" t="s">
-        <v>2748</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B242" t="s">
         <v>2749</v>
-      </c>
-      <c r="B242" t="s">
-        <v>2750</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B243" t="s">
         <v>2751</v>
-      </c>
-      <c r="B243" t="s">
-        <v>2752</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B244" t="s">
         <v>2753</v>
-      </c>
-      <c r="B244" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B245" t="s">
         <v>2755</v>
-      </c>
-      <c r="B245" t="s">
-        <v>2756</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B246" t="s">
         <v>2757</v>
-      </c>
-      <c r="B246" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B247" t="s">
         <v>2759</v>
-      </c>
-      <c r="B247" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B248" t="s">
         <v>2761</v>
-      </c>
-      <c r="B248" t="s">
-        <v>2762</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B249" t="s">
         <v>2763</v>
-      </c>
-      <c r="B249" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B250" t="s">
         <v>2765</v>
-      </c>
-      <c r="B250" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B251" t="s">
         <v>2767</v>
-      </c>
-      <c r="B251" t="s">
-        <v>2768</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B252" t="s">
         <v>2769</v>
-      </c>
-      <c r="B252" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B253" t="s">
         <v>2771</v>
-      </c>
-      <c r="B253" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B254" t="s">
         <v>2773</v>
-      </c>
-      <c r="B254" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B255" t="s">
         <v>2775</v>
-      </c>
-      <c r="B255" t="s">
-        <v>2776</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B256" t="s">
         <v>2777</v>
-      </c>
-      <c r="B256" t="s">
-        <v>2778</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B257" t="s">
         <v>2779</v>
-      </c>
-      <c r="B257" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B258" t="s">
         <v>2781</v>
-      </c>
-      <c r="B258" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B259" t="s">
         <v>2783</v>
-      </c>
-      <c r="B259" t="s">
-        <v>2784</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B260" t="s">
         <v>2785</v>
-      </c>
-      <c r="B260" t="s">
-        <v>2786</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B261" t="s">
         <v>2787</v>
-      </c>
-      <c r="B261" t="s">
-        <v>2788</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B262" t="s">
         <v>2789</v>
-      </c>
-      <c r="B262" t="s">
-        <v>2790</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B263" t="s">
         <v>2791</v>
-      </c>
-      <c r="B263" t="s">
-        <v>2792</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B264" t="s">
         <v>2793</v>
-      </c>
-      <c r="B264" t="s">
-        <v>2794</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B265" t="s">
         <v>2795</v>
-      </c>
-      <c r="B265" t="s">
-        <v>2796</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B266" t="s">
         <v>2797</v>
-      </c>
-      <c r="B266" t="s">
-        <v>2798</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B267" t="s">
         <v>2799</v>
-      </c>
-      <c r="B267" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B268" t="s">
         <v>2801</v>
-      </c>
-      <c r="B268" t="s">
-        <v>2802</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B269" t="s">
         <v>2803</v>
-      </c>
-      <c r="B269" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B270" t="s">
         <v>2805</v>
-      </c>
-      <c r="B270" t="s">
-        <v>2806</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B271" t="s">
         <v>2807</v>
-      </c>
-      <c r="B271" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B272" t="s">
         <v>2809</v>
-      </c>
-      <c r="B272" t="s">
-        <v>2810</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B273" t="s">
         <v>2811</v>
-      </c>
-      <c r="B273" t="s">
-        <v>2812</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B274" t="s">
         <v>2813</v>
-      </c>
-      <c r="B274" t="s">
-        <v>2814</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B275" t="s">
         <v>2815</v>
-      </c>
-      <c r="B275" t="s">
-        <v>2816</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B276" t="s">
         <v>2817</v>
-      </c>
-      <c r="B276" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B277" t="s">
         <v>2819</v>
-      </c>
-      <c r="B277" t="s">
-        <v>2820</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B278" t="s">
         <v>2821</v>
-      </c>
-      <c r="B278" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B279" t="s">
         <v>2823</v>
-      </c>
-      <c r="B279" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B280" t="s">
         <v>2825</v>
-      </c>
-      <c r="B280" t="s">
-        <v>2826</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B281" t="s">
         <v>2827</v>
-      </c>
-      <c r="B281" t="s">
-        <v>2828</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B282" t="s">
         <v>2829</v>
-      </c>
-      <c r="B282" t="s">
-        <v>2830</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B283" t="s">
         <v>2831</v>
-      </c>
-      <c r="B283" t="s">
-        <v>2832</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B284" t="s">
         <v>2833</v>
-      </c>
-      <c r="B284" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B285" t="s">
         <v>2835</v>
-      </c>
-      <c r="B285" t="s">
-        <v>2836</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B286" t="s">
         <v>2837</v>
-      </c>
-      <c r="B286" t="s">
-        <v>2838</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B287" t="s">
         <v>2839</v>
-      </c>
-      <c r="B287" t="s">
-        <v>2840</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B288" t="s">
         <v>2841</v>
-      </c>
-      <c r="B288" t="s">
-        <v>2842</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B289" t="s">
         <v>2843</v>
-      </c>
-      <c r="B289" t="s">
-        <v>2844</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B290" t="s">
         <v>2845</v>
-      </c>
-      <c r="B290" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B291" t="s">
         <v>2847</v>
-      </c>
-      <c r="B291" t="s">
-        <v>2848</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B292" t="s">
         <v>2849</v>
-      </c>
-      <c r="B292" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B293" t="s">
         <v>2851</v>
-      </c>
-      <c r="B293" t="s">
-        <v>2852</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B294" t="s">
         <v>2853</v>
-      </c>
-      <c r="B294" t="s">
-        <v>2854</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B295" t="s">
         <v>2855</v>
-      </c>
-      <c r="B295" t="s">
-        <v>2856</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B296" t="s">
         <v>2857</v>
-      </c>
-      <c r="B296" t="s">
-        <v>2858</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B297" t="s">
         <v>2859</v>
-      </c>
-      <c r="B297" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B298" t="s">
         <v>2861</v>
-      </c>
-      <c r="B298" t="s">
-        <v>2862</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B299" t="s">
         <v>2863</v>
-      </c>
-      <c r="B299" t="s">
-        <v>2864</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B300" t="s">
         <v>2865</v>
-      </c>
-      <c r="B300" t="s">
-        <v>2866</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B301" t="s">
         <v>2867</v>
-      </c>
-      <c r="B301" t="s">
-        <v>2868</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B302" t="s">
         <v>2869</v>
-      </c>
-      <c r="B302" t="s">
-        <v>2870</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B303" t="s">
         <v>2871</v>
-      </c>
-      <c r="B303" t="s">
-        <v>2872</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B304" t="s">
         <v>2873</v>
-      </c>
-      <c r="B304" t="s">
-        <v>2874</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B305" t="s">
         <v>2875</v>
-      </c>
-      <c r="B305" t="s">
-        <v>2876</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B306" t="s">
         <v>2877</v>
-      </c>
-      <c r="B306" t="s">
-        <v>2878</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B307" t="s">
         <v>2879</v>
-      </c>
-      <c r="B307" t="s">
-        <v>2880</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B308" t="s">
         <v>2881</v>
-      </c>
-      <c r="B308" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B309" t="s">
         <v>2883</v>
-      </c>
-      <c r="B309" t="s">
-        <v>2884</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B310" t="s">
         <v>2885</v>
-      </c>
-      <c r="B310" t="s">
-        <v>2886</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B311" t="s">
         <v>2887</v>
-      </c>
-      <c r="B311" t="s">
-        <v>2888</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B312" t="s">
         <v>2889</v>
-      </c>
-      <c r="B312" t="s">
-        <v>2890</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B313" t="s">
         <v>2891</v>
-      </c>
-      <c r="B313" t="s">
-        <v>2892</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B314" t="s">
         <v>2893</v>
-      </c>
-      <c r="B314" t="s">
-        <v>2894</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B315" t="s">
         <v>2895</v>
-      </c>
-      <c r="B315" t="s">
-        <v>2896</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B316" t="s">
         <v>2897</v>
-      </c>
-      <c r="B316" t="s">
-        <v>2898</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B317" t="s">
         <v>2899</v>
-      </c>
-      <c r="B317" t="s">
-        <v>2900</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B318" t="s">
         <v>2901</v>
-      </c>
-      <c r="B318" t="s">
-        <v>2902</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B319" t="s">
         <v>2903</v>
-      </c>
-      <c r="B319" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B320" t="s">
         <v>2905</v>
-      </c>
-      <c r="B320" t="s">
-        <v>2906</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B321" t="s">
         <v>2907</v>
-      </c>
-      <c r="B321" t="s">
-        <v>2908</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B322" t="s">
         <v>2909</v>
-      </c>
-      <c r="B322" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B323" t="s">
         <v>2911</v>
-      </c>
-      <c r="B323" t="s">
-        <v>2912</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B324" t="s">
         <v>2913</v>
-      </c>
-      <c r="B324" t="s">
-        <v>2914</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B325" t="s">
         <v>2915</v>
-      </c>
-      <c r="B325" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B326" t="s">
         <v>2917</v>
-      </c>
-      <c r="B326" t="s">
-        <v>2918</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B327" t="s">
         <v>2919</v>
-      </c>
-      <c r="B327" t="s">
-        <v>2920</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B328" t="s">
         <v>2921</v>
-      </c>
-      <c r="B328" t="s">
-        <v>2922</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B329" t="s">
         <v>2923</v>
-      </c>
-      <c r="B329" t="s">
-        <v>2924</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B330" t="s">
         <v>2925</v>
-      </c>
-      <c r="B330" t="s">
-        <v>2926</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B331" t="s">
         <v>2927</v>
-      </c>
-      <c r="B331" t="s">
-        <v>2928</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B332" t="s">
         <v>2929</v>
-      </c>
-      <c r="B332" t="s">
-        <v>2930</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B333" t="s">
         <v>2931</v>
-      </c>
-      <c r="B333" t="s">
-        <v>2932</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B334" t="s">
         <v>2933</v>
-      </c>
-      <c r="B334" t="s">
-        <v>2934</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B335" t="s">
         <v>2935</v>
-      </c>
-      <c r="B335" t="s">
-        <v>2936</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B336" t="s">
         <v>2937</v>
-      </c>
-      <c r="B336" t="s">
-        <v>2938</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B337" t="s">
         <v>2939</v>
-      </c>
-      <c r="B337" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B338" t="s">
         <v>2941</v>
-      </c>
-      <c r="B338" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B339" t="s">
         <v>2943</v>
-      </c>
-      <c r="B339" t="s">
-        <v>2944</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B340" t="s">
         <v>2945</v>
-      </c>
-      <c r="B340" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B341" t="s">
         <v>2947</v>
-      </c>
-      <c r="B341" t="s">
-        <v>2948</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B342" t="s">
         <v>2949</v>
-      </c>
-      <c r="B342" t="s">
-        <v>2950</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B343" t="s">
         <v>2951</v>
-      </c>
-      <c r="B343" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B344" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B345" t="s">
         <v>2954</v>
-      </c>
-      <c r="B345" t="s">
-        <v>2955</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B346" t="s">
         <v>2956</v>
-      </c>
-      <c r="B346" t="s">
-        <v>2957</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B347" t="s">
         <v>2958</v>
-      </c>
-      <c r="B347" t="s">
-        <v>2959</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B348" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B349" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
   </sheetData>
@@ -29009,25 +29107,25 @@
   <sheetData>
     <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1" s="63" t="s">
         <v>2962</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>2963</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>2964</v>
       </c>
       <c r="F1" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="H1"/>
       <c r="I1"/>
@@ -29078,7 +29176,7 @@
     </row>
     <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="67"/>
@@ -29089,14 +29187,14 @@
     </row>
     <row r="3" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C3" s="70"/>
       <c r="D3" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17">
@@ -29106,14 +29204,14 @@
     </row>
     <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>1474</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17">
@@ -29124,11 +29222,11 @@
     <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17">
@@ -29139,11 +29237,11 @@
     <row r="6" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69"/>
       <c r="B6" s="69" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17">
@@ -29153,14 +29251,14 @@
     </row>
     <row r="7" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="69" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17">
@@ -29170,14 +29268,14 @@
     </row>
     <row r="8" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
         <v>1484</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17">
@@ -29187,14 +29285,14 @@
     </row>
     <row r="9" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B9" s="69"/>
       <c r="C9" s="69" t="s">
         <v>1444</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17">
@@ -29204,14 +29302,14 @@
     </row>
     <row r="10" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="B10" s="69"/>
       <c r="C10" s="69" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17">
@@ -29221,14 +29319,14 @@
     </row>
     <row r="11" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17">
@@ -29238,7 +29336,7 @@
     </row>
     <row r="12" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="B12" s="69" t="s">
         <v>1462</v>
@@ -29255,14 +29353,14 @@
     </row>
     <row r="13" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C13" s="69"/>
       <c r="D13" s="17" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17">
@@ -29272,7 +29370,7 @@
     </row>
     <row r="14" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B14" s="69" t="s">
         <v>1485</v>
@@ -29281,60 +29379,60 @@
         <v>1486</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="69" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17">
         <v>4</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="16" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="69" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="C16" s="69"/>
       <c r="D16" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17">
         <v>4</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B17" s="69" t="s">
         <v>1559</v>
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
@@ -29346,7 +29444,7 @@
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B18" s="69" t="s">
         <v>1547</v>
@@ -29365,14 +29463,14 @@
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B19" s="69" t="s">
         <v>1553</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="17" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
@@ -29384,14 +29482,14 @@
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B20" s="69" t="s">
         <v>924</v>
       </c>
       <c r="C20" s="69"/>
       <c r="D20" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17">
@@ -29401,7 +29499,7 @@
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B21" s="69" t="s">
         <v>161</v>
@@ -29418,14 +29516,14 @@
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B22" s="69" t="s">
         <v>920</v>
       </c>
       <c r="C22" s="69"/>
       <c r="D22" s="17" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17">
@@ -29435,14 +29533,14 @@
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="72" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B23" s="69" t="s">
         <v>1562</v>
       </c>
       <c r="C23" s="69"/>
       <c r="D23" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E23" s="17">
         <v>1</v>
@@ -29454,7 +29552,7 @@
     </row>
     <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>1550</v>
@@ -29473,14 +29571,14 @@
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>2986</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>2987</v>
       </c>
       <c r="C25" s="69"/>
       <c r="D25" s="17" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E25" s="17">
         <v>1</v>
@@ -29492,14 +29590,14 @@
     </row>
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B26" s="69" t="s">
         <v>1524</v>
       </c>
       <c r="C26" s="69"/>
       <c r="D26" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E26" s="17">
         <v>1</v>
@@ -29511,7 +29609,7 @@
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>1518</v>
@@ -29530,14 +29628,14 @@
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="B28" s="69" t="s">
         <v>1521</v>
       </c>
       <c r="C28" s="69"/>
       <c r="D28" s="17" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E28" s="17">
         <v>1</v>
@@ -29549,14 +29647,14 @@
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C29" s="74"/>
       <c r="D29" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17">
@@ -29566,7 +29664,7 @@
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="B30" s="69" t="s">
         <v>1465</v>
@@ -29583,14 +29681,14 @@
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="17" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17">
@@ -29600,7 +29698,7 @@
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
@@ -29611,10 +29709,10 @@
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="72" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C33" s="69"/>
       <c r="D33" s="17" t="s">
@@ -29628,7 +29726,7 @@
     </row>
     <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="B34" s="69" t="s">
         <v>1571</v>
@@ -29645,13 +29743,13 @@
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B35" s="69" t="s">
         <v>1668</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>1679</v>
@@ -29664,13 +29762,13 @@
     </row>
     <row r="36" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B36" s="75" t="s">
         <v>2998</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="C36" s="69" t="s">
         <v>2999</v>
-      </c>
-      <c r="C36" s="69" t="s">
-        <v>3000</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>1679</v>
@@ -29681,7 +29779,7 @@
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="B37" s="69" t="s">
         <v>1679</v>
@@ -29698,7 +29796,7 @@
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B38" s="69" t="s">
         <v>1674</v>
@@ -29715,10 +29813,10 @@
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="68" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B39" s="69" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="17" t="s">
@@ -29732,7 +29830,7 @@
     </row>
     <row r="40" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
@@ -29743,14 +29841,14 @@
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="72" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B41" s="69" t="s">
         <v>1353</v>
       </c>
       <c r="C41" s="69"/>
       <c r="D41" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17">
@@ -29760,14 +29858,14 @@
     </row>
     <row r="42" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="72" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="B42" s="69" t="s">
         <v>1093</v>
       </c>
       <c r="C42" s="69"/>
       <c r="D42" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -29775,14 +29873,14 @@
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="72" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B43" s="69" t="s">
         <v>1416</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -29790,14 +29888,14 @@
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="72" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="B44" s="69" t="s">
         <v>1331</v>
       </c>
       <c r="C44" s="69"/>
       <c r="D44" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -29805,14 +29903,14 @@
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B45" s="69" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="17">
@@ -29822,14 +29920,14 @@
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="72" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C46" s="69"/>
       <c r="D46" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -29837,14 +29935,14 @@
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="72" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B47" s="69" t="s">
         <v>1157</v>
       </c>
       <c r="C47" s="69"/>
       <c r="D47" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -29852,14 +29950,14 @@
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="72" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="B48" s="69" t="s">
         <v>1285</v>
       </c>
       <c r="C48" s="69"/>
       <c r="D48" s="17" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17">
@@ -29869,7 +29967,7 @@
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="67" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="B49" s="66"/>
       <c r="C49" s="67"/>
@@ -29880,12 +29978,12 @@
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="76" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B50" s="77"/>
       <c r="C50" s="77"/>
       <c r="D50" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
@@ -29893,14 +29991,14 @@
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="B51" s="69" t="s">
         <v>1307</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17">
@@ -29910,14 +30008,14 @@
     </row>
     <row r="52" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="72" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B52" s="69" t="s">
         <v>1259</v>
       </c>
       <c r="C52" s="69"/>
       <c r="D52" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
@@ -29925,14 +30023,14 @@
     </row>
     <row r="53" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B53" s="69" t="s">
         <v>1236</v>
       </c>
       <c r="C53" s="69"/>
       <c r="D53" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17">
@@ -29942,14 +30040,14 @@
     </row>
     <row r="54" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="72" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B54" s="69" t="s">
         <v>1269</v>
       </c>
       <c r="C54" s="69"/>
       <c r="D54" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -29957,14 +30055,14 @@
     </row>
     <row r="55" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="78" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B55" s="74" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C55" s="69"/>
       <c r="D55" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
@@ -29974,12 +30072,12 @@
     </row>
     <row r="56" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="76" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B56" s="77"/>
       <c r="C56" s="77"/>
       <c r="D56" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -29987,14 +30085,14 @@
     </row>
     <row r="57" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="72" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="B57" s="69" t="s">
         <v>1164</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E57" s="17"/>
       <c r="F57" s="17">
@@ -30004,14 +30102,14 @@
     </row>
     <row r="58" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="72" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B58" s="69" t="s">
         <v>1447</v>
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E58" s="17"/>
       <c r="F58" s="17">
@@ -30021,14 +30119,14 @@
     </row>
     <row r="59" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="72" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B59" s="69" t="s">
         <v>1313</v>
       </c>
       <c r="C59" s="69"/>
       <c r="D59" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="17">
@@ -30038,14 +30136,14 @@
     </row>
     <row r="60" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="72" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B60" s="69" t="s">
         <v>1149</v>
       </c>
       <c r="C60" s="74"/>
       <c r="D60" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -30053,14 +30151,14 @@
     </row>
     <row r="61" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="72" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="B61" s="69" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C61" s="69"/>
       <c r="D61" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17">
@@ -30070,14 +30168,14 @@
     </row>
     <row r="62" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="72" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B62" s="69" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
@@ -30085,14 +30183,14 @@
     </row>
     <row r="63" spans="1:7" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="72" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="B63" s="69" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C63" s="69"/>
       <c r="D63" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -30100,14 +30198,14 @@
     </row>
     <row r="64" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="72" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B64" s="69" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C64" s="69"/>
       <c r="D64" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
@@ -30115,14 +30213,14 @@
     </row>
     <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="72" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C65" s="74"/>
       <c r="D65" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -30130,14 +30228,14 @@
     </row>
     <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="72" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B66" s="69" t="s">
         <v>1321</v>
       </c>
       <c r="C66" s="69"/>
       <c r="D66" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="17">
@@ -30147,14 +30245,14 @@
     </row>
     <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="78" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="B67" s="74" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C67" s="74"/>
       <c r="D67" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E67" s="17">
         <v>1</v>
@@ -30166,12 +30264,12 @@
     </row>
     <row r="68" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B68" s="69"/>
       <c r="C68" s="74"/>
       <c r="D68" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -30179,12 +30277,12 @@
     </row>
     <row r="69" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="78" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B69" s="69"/>
       <c r="C69" s="74"/>
       <c r="D69" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
@@ -30192,12 +30290,12 @@
     </row>
     <row r="70" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B70" s="69"/>
       <c r="C70" s="74"/>
       <c r="D70" s="17" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -30205,7 +30303,7 @@
     </row>
     <row r="71" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="67" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B71" s="66"/>
       <c r="C71" s="67"/>
@@ -30216,14 +30314,14 @@
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="72" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B72" s="69" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C72" s="69"/>
       <c r="D72" s="17" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="17">
@@ -30233,7 +30331,7 @@
     </row>
     <row r="73" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="67" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B73" s="66"/>
       <c r="C73" s="67"/>
@@ -30244,14 +30342,14 @@
     </row>
     <row r="74" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="72" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B74" s="69" t="s">
         <v>2265</v>
-      </c>
-      <c r="B74" s="69" t="s">
-        <v>2266</v>
       </c>
       <c r="C74" s="69"/>
       <c r="D74" s="17" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="E74" s="17"/>
       <c r="F74" s="17">
@@ -30261,14 +30359,14 @@
     </row>
     <row r="75" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="72" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B75" s="69" t="s">
         <v>1384</v>
       </c>
       <c r="C75" s="69"/>
       <c r="D75" s="17" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="E75" s="17"/>
       <c r="F75" s="17">
@@ -30281,7 +30379,7 @@
       <c r="B76" s="69"/>
       <c r="C76" s="69"/>
       <c r="D76" s="17" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="17"/>
